--- a/Data/PrisonCounty_vsOthers.xlsx
+++ b/Data/PrisonCounty_vsOthers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\hypothesis-testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAA703F-FB42-4168-9665-9C4AFC2E4EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379BEF54-700E-45A4-9C1E-D492FD994F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3300" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Bandera</t>
   </si>
   <si>
-    <t>Harrison</t>
-  </si>
-  <si>
     <t>Wise</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Wood</t>
+  </si>
+  <si>
+    <t>San Patricio</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,15 +455,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>66580</v>
+        <v>67008</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>66290</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>13914</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>13856</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>21399</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>21224</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>46530</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>44366</v>
